--- a/doc/04_その他/Category.xlsx
+++ b/doc/04_その他/Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\04_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9F357-226D-459D-917E-E324AEF9477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F515037A-3C37-4BBB-BADE-4929E1B415C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B0B1D61-56C9-4762-89D3-5ADD3E766D09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
   <si>
     <t>大カテゴリ</t>
     <rPh sb="0" eb="1">
@@ -703,6 +703,205 @@
     <t>カフェ/喫茶店</t>
     <rPh sb="4" eb="7">
       <t>キッサテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価項目テンプレ</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使いやすさ</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌に合うか</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもしろさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作性</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立地</t>
+    <rPh sb="0" eb="2">
+      <t>リッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外観</t>
+    <rPh sb="0" eb="2">
+      <t>ガイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満足度</t>
+    <rPh sb="0" eb="3">
+      <t>マンゾクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ度</t>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味</t>
+    <rPh sb="0" eb="1">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用感</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容/ストーリー</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リピートしたい度</t>
+    <rPh sb="7" eb="8">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目何個か入れる？</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレをやめるor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目複数個と点数入力欄だけつくる？</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>フクスウコ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>テンスウニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それか総合店点だけ出す？</t>
+    <rPh sb="3" eb="6">
+      <t>ソウゴウテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,7 +935,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -753,20 +952,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,15 +1348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70821C9E-93EF-49A4-91E0-66E8C2EFC2B3}">
-  <dimension ref="B3:O17"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.09765625" customWidth="1"/>
@@ -1120,394 +1365,577 @@
     <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.19921875" customWidth="1"/>
     <col min="10" max="10" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>97</v>
-      </c>
+      <c r="C11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I20" t="s">
         <v>95</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J20" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G21" t="s">
         <v>80</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I21" t="s">
         <v>96</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J21" t="s">
         <v>99</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G22" t="s">
         <v>77</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G15" t="s">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G16" t="s">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
         <v>82</v>
       </c>
-      <c r="K16">
+      <c r="K24">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.45">
-      <c r="G17" t="s">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="K17">
+      <c r="K25">
         <v>300</v>
       </c>
     </row>

--- a/doc/04_その他/Category.xlsx
+++ b/doc/04_その他/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\04_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F515037A-3C37-4BBB-BADE-4929E1B415C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE050E-CFC8-412C-9DF0-BC9C41160018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B0B1D61-56C9-4762-89D3-5ADD3E766D09}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3B0B1D61-56C9-4762-89D3-5ADD3E766D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>大カテゴリ</t>
     <rPh sb="0" eb="1">
@@ -458,13 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>季節家電</t>
-    <rPh sb="0" eb="4">
-      <t>キセツカデン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テレビゲーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -903,6 +896,10 @@
     <rPh sb="9" eb="10">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>季節家電</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -995,14 +992,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1348,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70821C9E-93EF-49A4-91E0-66E8C2EFC2B3}">
-  <dimension ref="B1:O25"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1372,570 +1366,611 @@
     <col min="15" max="15" width="18.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C2" t="s">
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="5" t="s">
+      <c r="N10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
         <v>88</v>
       </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
         <v>79</v>
       </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" t="s">
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="G24" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25">
+      <c r="L25">
         <v>300</v>
       </c>
     </row>
